--- a/Asset Inventory_2018.xlsx
+++ b/Asset Inventory_2018.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="198">
   <si>
     <t xml:space="preserve">Hotel Asset Inventory</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Office </t>
   </si>
   <si>
-    <t xml:space="preserve">A remote code execution vulnerability exists when Microsoft Windows PDF Library improperly handles objects in memory, aka "Windows PDF Remote Code Execution Vulnerability." This affects Windows 10 Servers, Windows 10. </t>
+    <t xml:space="preserve"> CVE-2018-1009 ---&gt; An elevation of privilege vulnerability exists when Windows improperly handles objects in memory and incorrectly maps kernel memory, aka "Microsoft DirectX Graphics Kernel Subsystem Elevation of Privilege Vulnerability." This affects Windows Server 2012 R2, Windows RT 8.1, Windows Server 2012, Windows Server 2016, Windows 8.1, Windows 10, Windows 10 Servers.</t>
   </si>
   <si>
     <t xml:space="preserve">A-0001</t>
@@ -148,9 +148,6 @@
     <t xml:space="preserve">Microsoft Windows 2016 Server SP1</t>
   </si>
   <si>
-    <t xml:space="preserve"> CVE-2018-1009 ---&gt; An elevation of privilege vulnerability exists when Windows improperly handles objects in memory and incorrectly maps kernel memory, aka "Microsoft DirectX Graphics Kernel Subsystem Elevation of Privilege Vulnerability." This affects Windows Server 2012 R2, Windows RT 8.1, Windows Server 2012, Windows Server 2016, Windows 8.1, Windows 10, Windows 10 Servers.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A-0005</t>
   </si>
   <si>
@@ -511,7 +508,117 @@
     <t xml:space="preserve">Reservation Process</t>
   </si>
   <si>
-    <t xml:space="preserve"> CVE-2018-1009 ---&gt; The lwp filter in LibreOffice before 5.0.4 allows remote attackers to cause a denial of service (memory corruption) or possibly have unspecified other impact via a crafted LotusWordPro (lwp) document.</t>
+    <t xml:space="preserve">A-0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back ups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office/ofline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Supplier Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Supplier Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSW004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP LaserJet Pro 
+ MFP M426fdw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF51454549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver-Product  Software 
+16.0.18002.756-501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSW005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF51454550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSW006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF51454551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSW007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF51454552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSW008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF51454553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSW009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-0040</t>
   </si>
 </sst>
 </file>
@@ -521,7 +628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -562,6 +669,25 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00000A"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -625,7 +751,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,6 +780,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -675,7 +825,7 @@
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF00000A"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
@@ -731,23 +881,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="93.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
@@ -917,120 +1067,120 @@
         <v>18</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>18</v>
@@ -1038,86 +1188,86 @@
     </row>
     <row r="11" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>18</v>
@@ -1125,115 +1275,115 @@
     </row>
     <row r="14" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>18</v>
@@ -1241,231 +1391,231 @@
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>36</v>
@@ -1473,28 +1623,28 @@
     </row>
     <row r="26" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>36</v>
@@ -1502,28 +1652,28 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>11</v>
@@ -1531,66 +1681,326 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="B30" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="5" t="s">
-        <v>162</v>
-      </c>
+    </row>
+    <row r="33" customFormat="false" ht="34.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
